--- a/Daily_Task_Tracker.xlsx
+++ b/Daily_Task_Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>SQL leetcode</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>Data Cleaning</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,10 +612,34 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
